--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -450,6 +465,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -544,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -556,6 +574,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -577,285 +596,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -877,2625 +941,3021 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -942,3020 +945,3020 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -470,7 +470,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -577,7 +577,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -440,25 +446,25 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>33,43.1</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>33,43.1</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1324,7 +1330,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1416,7 +1422,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1531,7 +1537,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1603,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,13 +1626,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
@@ -1640,22 +1646,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1663,22 +1669,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,22 +1807,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1824,22 +1830,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1847,22 +1853,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1870,22 +1876,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1893,22 +1899,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1985,22 +1991,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2054,22 +2060,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2077,22 +2083,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2100,22 +2106,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,22 +2152,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2307,22 +2313,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,22 +2405,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2497,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,22 +2543,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,22 +2612,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,10 +2727,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2733,7 +2739,7 @@
         <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,16 +2796,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>110</v>
@@ -2813,10 +2819,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -2825,7 +2831,7 @@
         <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,10 +2980,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2986,7 +2992,7 @@
         <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,10 +3003,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3009,7 +3015,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,10 +3026,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3032,7 +3038,7 @@
         <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3141,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3296,22 +3302,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3319,22 +3325,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3342,622 +3348,714 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -476,7 +476,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -583,7 +586,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3926,7 +3929,7 @@
         <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
@@ -3946,10 +3949,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -3958,7 +3961,7 @@
         <v>94</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3981,7 +3984,7 @@
         <v>94</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>24</v>
@@ -3992,10 +3995,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
@@ -4004,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
@@ -4027,7 +4030,7 @@
         <v>107</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4041,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3929,7 +3926,7 @@
         <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
@@ -3949,10 +3946,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -3961,7 +3958,7 @@
         <v>94</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3972,10 +3969,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3984,7 +3981,7 @@
         <v>94</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>24</v>
@@ -3995,10 +3992,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
@@ -4007,7 +4004,7 @@
         <v>32</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4018,10 +4015,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
@@ -4030,7 +4027,7 @@
         <v>107</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4041,19 +4038,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3926,7 +3929,7 @@
         <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
@@ -3946,10 +3949,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -3958,7 +3961,7 @@
         <v>94</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3981,7 +3984,7 @@
         <v>94</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>24</v>
@@ -3992,10 +3995,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
@@ -4004,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
@@ -4027,7 +4030,7 @@
         <v>107</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4041,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>11,33,43.1</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -574,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -584,7 +614,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2201,22 +2231,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2224,22 +2254,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2247,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2270,22 +2300,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2293,22 +2323,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2316,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2339,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,22 +2392,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2385,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2408,22 +2438,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2431,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2477,22 +2507,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2500,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2523,22 +2553,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2546,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2569,22 +2599,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2592,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,22 +2645,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2638,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2661,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2684,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2707,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2730,22 +2760,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2753,22 +2783,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2776,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2799,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2822,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2845,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2868,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2983,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3098,16 +3128,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>122</v>
@@ -3121,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3351,22 +3381,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3374,22 +3404,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3397,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3420,645 +3450,967 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -3318,7 +3318,7 @@
         <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>117</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1271,7 +1277,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1386,7 +1392,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1409,7 +1415,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1478,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1593,7 +1599,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1665,10 +1671,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1682,13 +1688,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1702,22 +1708,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1725,22 +1731,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,22 +1869,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
@@ -1932,22 +1938,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1955,22 +1961,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1978,22 +1984,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,22 +2076,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2162,22 +2168,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2185,22 +2191,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,22 +2260,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2323,22 +2329,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2346,22 +2352,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2369,22 +2375,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2392,22 +2398,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,22 +2513,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,22 +2559,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2576,22 +2582,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,22 +2628,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2674,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,22 +2720,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,22 +2766,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,22 +2835,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2852,22 +2858,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,10 +3065,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3071,7 +3077,7 @@
         <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3128,16 +3134,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>122</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,10 +3433,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3439,7 +3445,7 @@
         <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,10 +3456,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3462,7 +3468,7 @@
         <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3594,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3640,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3703,22 +3709,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3726,22 +3732,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3749,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,645 +3778,760 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="2" t="s">
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1461,7 +1467,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1484,7 +1490,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1622,7 +1628,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1694,10 +1700,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1711,13 +1717,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>99</v>
@@ -1731,22 +1737,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1754,22 +1760,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1915,22 +1921,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1961,22 +1967,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -2007,22 +2013,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,22 +2082,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2191,22 +2197,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2214,22 +2220,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2237,22 +2243,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2306,22 +2312,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2375,22 +2381,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2398,22 +2404,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2421,22 +2427,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2444,22 +2450,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,22 +2588,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>21</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2674,22 +2680,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2697,19 +2703,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2726,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2772,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2789,22 +2795,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2812,22 +2818,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2835,22 +2841,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,22 +2910,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2927,22 +2933,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3094,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,10 +3140,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3146,7 +3152,7 @@
         <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3163,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,10 +3255,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3261,7 +3267,7 @@
         <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3324,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3370,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3393,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3416,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,19 +3439,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3462,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,19 +3485,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3525,10 +3531,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3537,7 +3543,7 @@
         <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3548,10 +3554,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3560,7 +3566,7 @@
         <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3577,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3646,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3663,19 +3669,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3686,19 +3692,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3709,19 +3715,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3732,19 +3738,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3755,19 +3761,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3778,19 +3784,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3801,22 +3807,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3824,22 +3830,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3847,19 +3853,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3870,668 +3876,760 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G165" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,6 +239,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
     <t>Residenza non nota</t>
   </si>
   <si>
@@ -423,6 +429,57 @@
   </si>
   <si>
     <t>natoVivoMaDeceduto</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Atto riconoscimento materno</t>
@@ -616,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -625,7 +682,7 @@
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.19921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -1651,7 +1708,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1723,10 +1780,10 @@
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1740,13 +1797,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
@@ -1760,22 +1817,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1783,22 +1840,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1806,19 +1863,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1886,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1909,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1932,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1955,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1978,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1944,22 +2001,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1967,22 +2024,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1990,22 +2047,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -2013,19 +2070,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
@@ -2036,22 +2093,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2059,19 +2116,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2082,22 +2139,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2105,22 +2162,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2128,19 +2185,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2151,19 +2208,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2231,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2197,19 +2254,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2277,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2243,22 +2300,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2266,22 +2323,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2289,22 +2346,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2312,19 +2369,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2392,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2358,22 +2415,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2381,19 +2438,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2461,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2427,22 +2484,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2450,22 +2507,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2473,22 +2530,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2496,22 +2553,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2519,19 +2576,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2599,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2622,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2645,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2668,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2634,22 +2691,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2657,19 +2714,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2737,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>21</v>
@@ -2703,19 +2760,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2726,22 +2783,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2749,19 +2806,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2829,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2852,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2818,22 +2875,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2841,19 +2898,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2864,22 +2921,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2887,22 +2944,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2910,22 +2967,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2933,19 +2990,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -2956,19 +3013,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2979,22 +3036,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3002,22 +3059,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3025,19 +3082,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3105,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3128,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3151,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3174,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3197,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3220,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3243,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3209,10 +3266,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3221,7 +3278,7 @@
         <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3289,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3312,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3335,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3358,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3324,10 +3381,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -3336,7 +3393,7 @@
         <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3404,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3427,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3450,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3473,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3496,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3519,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3542,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3565,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3588,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3611,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3634,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3600,10 +3657,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3612,7 +3669,7 @@
         <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3623,10 +3680,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3635,7 +3692,7 @@
         <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3703,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3726,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3692,19 +3749,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3715,183 +3772,183 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3899,22 +3956,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3922,7 +3979,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>163</v>
@@ -3931,7 +3988,7 @@
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>164</v>
@@ -3945,691 +4002,944 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G174" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="233">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -326,6 +413,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -383,9 +479,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -578,9 +671,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -615,6 +705,12 @@
   </si>
   <si>
     <t>tipoConsenso</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -673,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1156,312 +1252,312 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1472,19 +1568,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1591,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1614,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1637,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1660,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1683,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1706,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1729,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1752,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1775,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1798,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1821,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1844,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1867,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1890,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1913,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1840,22 +1936,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1863,19 +1959,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1982,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1909,19 +2005,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1932,19 +2028,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1955,19 +2051,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1978,19 +2074,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2097,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2024,22 +2120,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -2047,19 +2143,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2070,22 +2166,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2093,22 +2189,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2116,19 +2212,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2139,620 +2235,620 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2760,19 +2856,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2783,22 +2879,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2806,19 +2902,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2925,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2948,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2971,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2994,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2921,22 +3017,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2944,22 +3040,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2967,22 +3063,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2990,19 +3086,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -3013,19 +3109,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3036,22 +3132,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3059,19 +3155,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3082,22 +3178,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3105,19 +3201,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3128,22 +3224,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3151,19 +3247,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3174,22 +3270,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3197,19 +3293,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3220,22 +3316,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3243,22 +3339,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3266,19 +3362,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3385,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3408,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3431,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3358,22 +3454,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3381,19 +3477,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3404,22 +3500,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3427,22 +3523,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3450,22 +3546,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3473,19 +3569,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3592,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3615,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3638,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3661,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3684,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3707,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3634,22 +3730,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3657,19 +3753,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3680,22 +3776,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3703,19 +3799,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3726,19 +3822,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3749,19 +3845,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3772,183 +3868,183 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3956,22 +4052,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3979,19 +4075,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4002,19 +4098,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4121,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4144,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4167,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4094,19 +4190,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4213,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4236,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4163,22 +4259,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>34</v>
@@ -4186,22 +4282,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>34</v>
@@ -4209,19 +4305,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4232,617 +4328,617 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4853,22 +4949,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>34</v>
@@ -4876,7 +4972,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>194</v>
@@ -4885,7 +4981,7 @@
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>195</v>
@@ -4899,7 +4995,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>196</v>
@@ -4908,7 +5004,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>197</v>
@@ -4922,7 +5018,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>198</v>
@@ -4931,15 +5027,935 @@
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="233">
   <si>
     <t>Sezione</t>
   </si>
@@ -769,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2560,7 +2560,7 @@
         <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2569,7 +2569,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2583,7 +2583,7 @@
         <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2592,7 +2592,7 @@
         <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2615,7 +2615,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2629,7 +2629,7 @@
         <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2638,7 +2638,7 @@
         <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2652,7 +2652,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2675,7 +2675,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2698,7 +2698,7 @@
         <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2707,7 +2707,7 @@
         <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2721,7 +2721,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2730,7 +2730,7 @@
         <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2744,7 +2744,7 @@
         <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2753,7 +2753,7 @@
         <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2776,7 +2776,7 @@
         <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2790,7 +2790,7 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2799,7 +2799,7 @@
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2810,25 +2810,25 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -2836,19 +2836,19 @@
         <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2859,16 +2859,16 @@
         <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2882,16 +2882,16 @@
         <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2905,7 +2905,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2914,7 +2914,7 @@
         <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2928,7 +2928,7 @@
         <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2937,7 +2937,7 @@
         <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2951,7 +2951,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2960,7 +2960,7 @@
         <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2974,16 +2974,16 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2997,7 +2997,7 @@
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3006,10 +3006,10 @@
         <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -3020,7 +3020,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3029,10 +3029,10 @@
         <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -3043,7 +3043,7 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3052,10 +3052,10 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3066,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3075,7 +3075,7 @@
         <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -3089,19 +3089,19 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -3112,7 +3112,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -3121,7 +3121,7 @@
         <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3135,19 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3158,7 +3158,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3167,7 +3167,7 @@
         <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3181,7 +3181,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3190,10 +3190,10 @@
         <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3204,7 +3204,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3213,10 +3213,10 @@
         <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3227,7 +3227,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3236,10 +3236,10 @@
         <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3250,7 +3250,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3259,10 +3259,10 @@
         <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3273,7 +3273,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3282,10 +3282,10 @@
         <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3296,7 +3296,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3305,10 +3305,10 @@
         <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3319,7 +3319,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3328,7 +3328,7 @@
         <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>21</v>
@@ -3342,19 +3342,19 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3365,7 +3365,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3374,7 +3374,7 @@
         <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3388,7 +3388,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3397,7 +3397,7 @@
         <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3411,16 +3411,16 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3434,7 +3434,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3443,10 +3443,10 @@
         <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3457,7 +3457,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3466,10 +3466,10 @@
         <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3480,7 +3480,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3489,10 +3489,10 @@
         <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3503,7 +3503,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3512,7 +3512,7 @@
         <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>21</v>
@@ -3523,22 +3523,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3549,19 +3549,19 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3572,16 +3572,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3595,16 +3595,16 @@
         <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3618,7 +3618,7 @@
         <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3627,7 +3627,7 @@
         <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3641,7 +3641,7 @@
         <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3650,7 +3650,7 @@
         <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3664,7 +3664,7 @@
         <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3673,7 +3673,7 @@
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3687,16 +3687,16 @@
         <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3710,7 +3710,7 @@
         <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3719,10 +3719,10 @@
         <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3733,7 +3733,7 @@
         <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3742,10 +3742,10 @@
         <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3756,7 +3756,7 @@
         <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3765,10 +3765,10 @@
         <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3779,7 +3779,7 @@
         <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3788,10 +3788,10 @@
         <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3802,16 +3802,16 @@
         <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3825,7 +3825,7 @@
         <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3834,7 +3834,7 @@
         <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3848,16 +3848,16 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3871,7 +3871,7 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3880,7 +3880,7 @@
         <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3894,7 +3894,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3903,7 +3903,7 @@
         <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3917,7 +3917,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3926,10 +3926,10 @@
         <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3940,7 +3940,7 @@
         <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3949,10 +3949,10 @@
         <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3963,7 +3963,7 @@
         <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3972,10 +3972,10 @@
         <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3986,7 +3986,7 @@
         <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3995,10 +3995,10 @@
         <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -4009,7 +4009,7 @@
         <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -4018,10 +4018,10 @@
         <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -4032,7 +4032,7 @@
         <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4041,7 +4041,7 @@
         <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>21</v>
@@ -4055,19 +4055,19 @@
         <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -4078,7 +4078,7 @@
         <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -4087,7 +4087,7 @@
         <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4101,7 +4101,7 @@
         <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
@@ -4110,7 +4110,7 @@
         <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4124,16 +4124,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4147,7 +4147,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
         <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4170,7 +4170,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4179,7 +4179,7 @@
         <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4193,7 +4193,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4202,7 +4202,7 @@
         <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4216,7 +4216,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4225,7 +4225,7 @@
         <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4236,19 +4236,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4262,16 +4262,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4285,16 +4285,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4308,7 +4308,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4317,7 +4317,7 @@
         <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4331,16 +4331,16 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4354,16 +4354,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4377,7 +4377,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4386,7 +4386,7 @@
         <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4400,16 +4400,16 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4432,7 +4432,7 @@
         <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4446,16 +4446,16 @@
         <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4469,7 +4469,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
@@ -4478,7 +4478,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4492,16 +4492,16 @@
         <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4515,7 +4515,7 @@
         <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4538,7 +4538,7 @@
         <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4547,7 +4547,7 @@
         <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4561,7 +4561,7 @@
         <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4570,7 +4570,7 @@
         <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4584,16 +4584,16 @@
         <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4607,16 +4607,16 @@
         <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4630,7 +4630,7 @@
         <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4639,7 +4639,7 @@
         <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4653,7 +4653,7 @@
         <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4662,7 +4662,7 @@
         <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4676,7 +4676,7 @@
         <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4685,7 +4685,7 @@
         <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4699,16 +4699,16 @@
         <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4722,7 +4722,7 @@
         <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4731,7 +4731,7 @@
         <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4742,25 +4742,25 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174">
@@ -4768,7 +4768,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4777,7 +4777,7 @@
         <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>21</v>
@@ -4791,7 +4791,7 @@
         <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -4800,7 +4800,7 @@
         <v>172</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>21</v>
@@ -4814,7 +4814,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4823,10 +4823,10 @@
         <v>172</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>174</v>
@@ -4837,7 +4837,7 @@
         <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4846,10 +4846,10 @@
         <v>172</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>174</v>
@@ -4860,7 +4860,7 @@
         <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4869,10 +4869,10 @@
         <v>172</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>174</v>
@@ -4883,7 +4883,7 @@
         <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4892,10 +4892,10 @@
         <v>172</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>174</v>
@@ -4903,25 +4903,25 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
@@ -4929,16 +4929,16 @@
         <v>187</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4952,16 +4952,16 @@
         <v>187</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4975,7 +4975,7 @@
         <v>187</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4984,7 +4984,7 @@
         <v>192</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4998,7 +4998,7 @@
         <v>187</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -5007,7 +5007,7 @@
         <v>192</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -5021,7 +5021,7 @@
         <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -5030,7 +5030,7 @@
         <v>192</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -5044,7 +5044,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
@@ -5053,7 +5053,7 @@
         <v>192</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5067,7 +5067,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>17</v>
@@ -5076,7 +5076,7 @@
         <v>192</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5090,7 +5090,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
@@ -5099,7 +5099,7 @@
         <v>192</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5113,7 +5113,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
@@ -5122,7 +5122,7 @@
         <v>192</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5136,19 +5136,19 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>34</v>
@@ -5159,7 +5159,7 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5168,7 +5168,7 @@
         <v>192</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>210</v>
@@ -5182,19 +5182,19 @@
         <v>187</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>34</v>
@@ -5202,25 +5202,25 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194">
@@ -5228,19 +5228,19 @@
         <v>215</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>218</v>
@@ -5251,16 +5251,16 @@
         <v>215</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5274,16 +5274,16 @@
         <v>215</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5297,7 +5297,7 @@
         <v>215</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
@@ -5306,7 +5306,7 @@
         <v>216</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5320,7 +5320,7 @@
         <v>215</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
@@ -5329,7 +5329,7 @@
         <v>216</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5343,7 +5343,7 @@
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
@@ -5352,7 +5352,7 @@
         <v>216</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5366,16 +5366,16 @@
         <v>215</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5389,7 +5389,7 @@
         <v>215</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5398,10 +5398,10 @@
         <v>216</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>218</v>
@@ -5412,7 +5412,7 @@
         <v>215</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5421,10 +5421,10 @@
         <v>216</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>218</v>
@@ -5435,7 +5435,7 @@
         <v>215</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5444,10 +5444,10 @@
         <v>216</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>218</v>
@@ -5458,7 +5458,7 @@
         <v>215</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5467,7 +5467,7 @@
         <v>216</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>217</v>
@@ -5481,19 +5481,19 @@
         <v>215</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>218</v>
@@ -5504,7 +5504,7 @@
         <v>215</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
@@ -5513,7 +5513,7 @@
         <v>216</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5527,19 +5527,19 @@
         <v>215</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>218</v>
@@ -5550,7 +5550,7 @@
         <v>215</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5559,7 +5559,7 @@
         <v>216</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>217</v>
@@ -5573,7 +5573,7 @@
         <v>215</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5582,10 +5582,10 @@
         <v>216</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>218</v>
@@ -5596,7 +5596,7 @@
         <v>215</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5605,10 +5605,10 @@
         <v>216</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>218</v>
@@ -5619,7 +5619,7 @@
         <v>215</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5628,10 +5628,10 @@
         <v>216</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>218</v>
@@ -5642,7 +5642,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5651,10 +5651,10 @@
         <v>216</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>218</v>
@@ -5665,7 +5665,7 @@
         <v>215</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5674,10 +5674,10 @@
         <v>216</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>218</v>
@@ -5688,7 +5688,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5697,10 +5697,10 @@
         <v>216</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>218</v>
@@ -5711,7 +5711,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5720,7 +5720,7 @@
         <v>216</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>217</v>
@@ -5734,19 +5734,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>218</v>
@@ -5757,7 +5757,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>17</v>
@@ -5766,7 +5766,7 @@
         <v>216</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5780,7 +5780,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>17</v>
@@ -5789,7 +5789,7 @@
         <v>216</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5800,25 +5800,25 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220">
@@ -5826,19 +5826,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>34</v>
@@ -5849,19 +5849,19 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>34</v>
@@ -5872,16 +5872,16 @@
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5895,16 +5895,16 @@
         <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5918,44 +5918,21 @@
         <v>219</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="235">
   <si>
     <t>Sezione</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -769,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1896,7 +1902,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>77</v>
@@ -5185,7 +5191,7 @@
         <v>213</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>192</v>
@@ -5194,7 +5200,7 @@
         <v>214</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>34</v>
@@ -5202,634 +5208,634 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>129</v>
@@ -5838,7 +5844,7 @@
         <v>223</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>34</v>
@@ -5846,22 +5852,22 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>34</v>
@@ -5869,7 +5875,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>226</v>
@@ -5878,7 +5884,7 @@
         <v>17</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>227</v>
@@ -5892,7 +5898,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>228</v>
@@ -5901,10 +5907,10 @@
         <v>17</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5915,16 +5921,16 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>232</v>
@@ -5933,6 +5939,29 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -5513,7 +5513,7 @@
         <v>100</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>218</v>
@@ -5536,7 +5536,7 @@
         <v>102</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>218</v>
@@ -5545,7 +5545,7 @@
         <v>103</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>220</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_068.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="239">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -775,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1695,7 +1707,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>77</v>
@@ -1718,7 +1730,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>77</v>
@@ -1764,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -1787,7 +1799,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>77</v>
@@ -1853,7 +1865,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1862,7 +1874,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1885,7 +1897,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1899,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2132,7 +2144,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>77</v>
@@ -2155,7 +2167,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>77</v>
@@ -2204,10 +2216,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2221,16 +2233,16 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2241,65 +2253,65 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2713,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2736,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2816,114 +2828,114 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3000,22 +3012,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -3023,22 +3035,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -3046,22 +3058,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3069,22 +3081,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3161,22 +3173,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3184,22 +3196,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3207,19 +3219,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>21</v>
@@ -3230,19 +3242,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3253,22 +3265,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3276,22 +3288,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3322,22 +3334,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3345,22 +3357,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3368,19 +3380,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3391,22 +3403,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3414,19 +3426,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>21</v>
@@ -3460,22 +3472,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3483,22 +3495,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3506,22 +3518,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3529,22 +3541,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3552,19 +3564,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3575,22 +3587,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3598,19 +3610,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3621,22 +3633,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>34</v>
@@ -3644,22 +3656,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3667,22 +3679,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3690,19 +3702,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3713,22 +3725,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3736,19 +3748,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3759,22 +3771,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3782,19 +3794,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3805,19 +3817,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3828,19 +3840,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3851,19 +3863,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3874,19 +3886,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3897,22 +3909,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3920,22 +3932,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3943,22 +3955,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3966,22 +3978,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3989,19 +4001,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -4012,22 +4024,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -4035,22 +4047,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -4058,19 +4070,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4081,19 +4093,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4104,22 +4116,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -4127,19 +4139,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4150,22 +4162,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4173,19 +4185,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4196,22 +4208,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4219,22 +4231,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4242,19 +4254,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4265,19 +4277,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4288,19 +4300,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4311,19 +4323,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4334,19 +4346,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4357,19 +4369,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4380,19 +4392,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4403,19 +4415,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4426,19 +4438,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4449,19 +4461,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4472,19 +4484,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4495,19 +4507,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4518,19 +4530,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4541,19 +4553,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4564,19 +4576,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4587,10 +4599,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
@@ -4599,7 +4611,7 @@
         <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4610,19 +4622,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4633,19 +4645,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4656,19 +4668,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4679,19 +4691,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4702,19 +4714,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4725,19 +4737,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4748,180 +4760,180 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4932,180 +4944,180 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5116,19 +5128,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5139,22 +5151,22 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>34</v>
@@ -5162,22 +5174,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>34</v>
@@ -5185,22 +5197,22 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>34</v>
@@ -5208,19 +5220,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5231,600 +5243,600 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220">
@@ -5832,22 +5844,22 @@
         <v>221</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221">
@@ -5855,22 +5867,22 @@
         <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="222">
@@ -5878,22 +5890,22 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223">
@@ -5901,22 +5913,22 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224">
@@ -5924,22 +5936,22 @@
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225">
@@ -5947,21 +5959,251 @@
         <v>221</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>34</v>
       </c>
     </row>
